--- a/data/DAiA Manual Labeling.xlsx
+++ b/data/DAiA Manual Labeling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3255aa3fa7d48a59/Desktop/Veranstaltungen/Data Analytics in Applications/daia-eon/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{114ED53A-7DD9-4EBE-ACAF-8801673E5573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C55EED3E-D390-8945-8EF2-AA09107EAC97}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{114ED53A-7DD9-4EBE-ACAF-8801673E5573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9140542-6BB2-0D4F-93AF-5C29EA8E13F2}"/>
   <bookViews>
-    <workbookView xWindow="19580" yWindow="22520" windowWidth="14480" windowHeight="16620" xr2:uid="{D5A5125A-2A0E-AE4B-B7B2-07D8AB5715C0}"/>
+    <workbookView xWindow="14780" yWindow="900" windowWidth="14440" windowHeight="16640" xr2:uid="{D5A5125A-2A0E-AE4B-B7B2-07D8AB5715C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3472,11 +3472,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF80886-0555-0A47-A890-09D645E2269F}">
   <dimension ref="A1:BE161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W127" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB146" sqref="AB146"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/DAiA Manual Labeling.xlsx
+++ b/data/DAiA Manual Labeling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3255aa3fa7d48a59/Desktop/Veranstaltungen/Data Analytics in Applications/daia-eon/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{114ED53A-7DD9-4EBE-ACAF-8801673E5573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9140542-6BB2-0D4F-93AF-5C29EA8E13F2}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{114ED53A-7DD9-4EBE-ACAF-8801673E5573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69511628-40F8-524B-BD15-FD5E0D108E1F}"/>
   <bookViews>
-    <workbookView xWindow="14780" yWindow="900" windowWidth="14440" windowHeight="16640" xr2:uid="{D5A5125A-2A0E-AE4B-B7B2-07D8AB5715C0}"/>
+    <workbookView xWindow="19780" yWindow="22600" windowWidth="14440" windowHeight="16640" xr2:uid="{D5A5125A-2A0E-AE4B-B7B2-07D8AB5715C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -734,9 +734,6 @@
     <t>406582696</t>
   </si>
   <si>
-    <t>919684277</t>
-  </si>
-  <si>
     <t>25.txt</t>
   </si>
   <si>
@@ -3000,6 +2997,9 @@
   </si>
   <si>
     <t>23.07.2023</t>
+  </si>
+  <si>
+    <t>919684277</t>
   </si>
 </sst>
 </file>
@@ -3472,11 +3472,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF80886-0555-0A47-A890-09D645E2269F}">
   <dimension ref="A1:BE161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AR17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="AT27" sqref="AT27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3771,7 +3771,7 @@
         <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>78</v>
@@ -4077,7 +4077,7 @@
         <v>169</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AC17" s="2" t="s">
         <v>170</v>
@@ -4241,7 +4241,7 @@
         <v>216</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AC24" s="2" t="s">
         <v>217</v>
@@ -4299,117 +4299,117 @@
         <v>231</v>
       </c>
       <c r="AT26" s="2" t="s">
-        <v>232</v>
+        <v>986</v>
       </c>
     </row>
     <row r="27" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="U27" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="U27" s="2" t="s">
+      <c r="AB27" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AB27" s="2" t="s">
+      <c r="AP27" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="AP27" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="N28" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="O28" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="P28" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="U28" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="U28" s="2" t="s">
+      <c r="V28" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="V28" s="2" t="s">
+      <c r="AB28" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AB28" s="2" t="s">
+      <c r="AC28" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD28" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AC28" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AD28" s="2" t="s">
+      <c r="AF28" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AF28" s="2" t="s">
+      <c r="AK28" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AK28" s="2" t="s">
+      <c r="AP28" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="AP28" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="BA29" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="BA29" s="2" t="s">
+      <c r="BB29" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="BB29" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="AZ30" s="10" t="s">
         <v>224</v>
@@ -4417,341 +4417,341 @@
     </row>
     <row r="31" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="W31" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="O32" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="P32" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="P32" s="2" t="s">
+      <c r="Q32" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="R32" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="S32" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="S32" s="2" t="s">
+      <c r="T32" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="T32" s="2" t="s">
+      <c r="U32" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="U32" s="2" t="s">
+      <c r="W32" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="W32" s="2" t="s">
+      <c r="Z32" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="Z32" s="2" t="s">
+      <c r="AA32" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="AA32" s="2" t="s">
+      <c r="AB32" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="AB32" s="2" t="s">
+      <c r="AU32" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="AU32" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="AZ33" s="10" t="s">
         <v>288</v>
-      </c>
-      <c r="AZ33" s="10" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="W34" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="W34" s="2" t="s">
+      <c r="Y34" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="Y34" s="2" t="s">
+      <c r="AB34" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="AB34" s="2" t="s">
+      <c r="AZ34" s="10" t="s">
         <v>295</v>
-      </c>
-      <c r="AZ34" s="10" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="N35" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="O35" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="P35" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="P35" s="2" t="s">
+      <c r="AB35" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="AB35" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="K36" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="O36" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="P36" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="W36" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="AB36" s="2" t="s">
         <v>73</v>
       </c>
       <c r="AG36" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="AV36" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="AV36" s="2" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="O37" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="P37" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="AW37" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="AW37" s="17" t="s">
+      <c r="AX37" s="17" t="s">
         <v>321</v>
-      </c>
-      <c r="AX37" s="17" t="s">
-        <v>322</v>
       </c>
       <c r="AY37" s="17"/>
       <c r="BA37" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="BB37" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="BB37" s="2" t="s">
+      <c r="BC37" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="BC37" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="M38" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="N38" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="O38" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="P38" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="U38" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AZ40" s="10" t="s">
         <v>335</v>
-      </c>
-      <c r="AZ40" s="10" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="M41" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="N41" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="O41" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="P41" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="Q41" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="R41" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="S41" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB41" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="S41" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AB41" s="2" t="s">
+      <c r="BA41" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="BA41" s="16" t="s">
+      <c r="BB41" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="BB41" s="16" t="s">
+      <c r="BC41" s="16" t="s">
         <v>351</v>
-      </c>
-      <c r="BC41" s="16" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="Y42" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="Y42" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="N43" s="2">
         <v>36</v>
@@ -4760,10 +4760,10 @@
         <v>75680</v>
       </c>
       <c r="P43" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q43" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="Q43" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="R43" s="2">
         <v>9</v>
@@ -4772,19 +4772,19 @@
         <v>21333</v>
       </c>
       <c r="T43" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="U43" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="U43" s="2" t="s">
+      <c r="AF43" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AF43" s="2" t="s">
+      <c r="AL43" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AL43" s="2" t="s">
-        <v>368</v>
-      </c>
       <c r="AM43" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AP43" s="2">
         <v>402390007</v>
@@ -4793,16 +4793,16 @@
     </row>
     <row r="44" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="U44" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="U44" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="W44" s="2">
         <v>409291555</v>
@@ -4811,67 +4811,67 @@
     </row>
     <row r="45" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>168</v>
       </c>
       <c r="H45" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="AZ45" s="2"/>
     </row>
     <row r="46" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="Y46" s="2">
         <v>50</v>
       </c>
       <c r="AB46" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="AZ46" s="2"/>
       <c r="BA46" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="M47" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="N47" s="2">
         <v>405</v>
@@ -4880,52 +4880,52 @@
         <v>44082</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AZ47" s="2"/>
     </row>
     <row r="48" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="M48" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="N48" s="2">
         <v>6</v>
       </c>
       <c r="O48" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="P48" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="P48" s="2" t="s">
+      <c r="U48" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="U48" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="AB48" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AZ48" s="2"/>
     </row>
     <row r="49" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="M49" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="N49" s="2">
         <v>7</v>
@@ -4934,37 +4934,37 @@
         <v>26209</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AZ49" s="2"/>
     </row>
     <row r="50" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="AZ50" s="2"/>
     </row>
     <row r="51" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="M51" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="N51" s="2">
         <v>578</v>
@@ -4973,25 +4973,25 @@
         <v>46950</v>
       </c>
       <c r="P51" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB51" s="18" t="s">
         <v>409</v>
-      </c>
-      <c r="AB51" s="18" t="s">
-        <v>410</v>
       </c>
       <c r="AZ51" s="2"/>
     </row>
     <row r="52" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="U52" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="U52" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="W52" s="2">
         <v>401300594</v>
@@ -5002,31 +5002,31 @@
     </row>
     <row r="53" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="AZ53" s="2"/>
     </row>
     <row r="54" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="M54" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="N54" s="2">
         <v>47</v>
@@ -5035,37 +5035,37 @@
         <v>74403</v>
       </c>
       <c r="P54" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="U54" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="U54" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="W54" s="2">
         <v>407714264</v>
       </c>
       <c r="AY54" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AZ54" s="2"/>
       <c r="BD54" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="M55" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="N55" s="2">
         <v>57</v>
@@ -5074,10 +5074,10 @@
         <v>79298</v>
       </c>
       <c r="P55" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q55" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="R55" s="2">
         <v>1</v>
@@ -5086,19 +5086,19 @@
         <v>79298</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AZ55" s="2"/>
     </row>
     <row r="56" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="W56" s="2">
         <v>403083108</v>
@@ -5109,16 +5109,16 @@
     </row>
     <row r="57" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AB57" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AC57" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AG57" s="2">
         <v>242354742018</v>
@@ -5133,52 +5133,52 @@
     </row>
     <row r="58" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>441</v>
-      </c>
       <c r="Y58" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="AQ58" s="2" t="s">
         <v>948</v>
-      </c>
-      <c r="AQ58" s="2" t="s">
-        <v>949</v>
       </c>
       <c r="AZ58" s="2"/>
     </row>
     <row r="59" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="K59" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="M59" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="N59" s="2">
         <v>7</v>
@@ -5187,7 +5187,7 @@
         <v>97904</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="V59" s="2">
         <v>24156</v>
@@ -5199,16 +5199,16 @@
     </row>
     <row r="60" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="M60" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="N60" s="2">
         <v>530</v>
@@ -5217,19 +5217,19 @@
         <v>50879</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AZ60" s="2"/>
     </row>
     <row r="61" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="W61" s="2">
         <v>404032442</v>
@@ -5238,16 +5238,16 @@
     </row>
     <row r="62" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="M62" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="N62" s="2">
         <v>958</v>
@@ -5256,10 +5256,10 @@
         <v>74815</v>
       </c>
       <c r="P62" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q62" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="Q62" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="R62" s="2">
         <v>83</v>
@@ -5274,22 +5274,22 @@
     </row>
     <row r="63" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="I63" s="2" t="s">
+      <c r="K63" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="M63" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="N63" s="2">
         <v>193</v>
@@ -5298,7 +5298,7 @@
         <v>7882</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="W63" s="2">
         <v>405292004</v>
@@ -5310,19 +5310,19 @@
     </row>
     <row r="64" spans="1:56" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="M64" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="N64" s="2">
         <v>380</v>
@@ -5331,10 +5331,10 @@
         <v>32884</v>
       </c>
       <c r="P64" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="U64" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="U64" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="AP64" s="2">
         <v>204211951</v>
@@ -5343,94 +5343,94 @@
     </row>
     <row r="65" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="H65" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="I65" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="I65" s="2" t="s">
+      <c r="L65" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="M65" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="M65" s="2" t="s">
+      <c r="N65" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="O65" s="2">
         <v>73340</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="W65" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="Y65" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="Y65" s="2" t="s">
-        <v>952</v>
-      </c>
       <c r="AP65" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AZ65" s="2"/>
     </row>
     <row r="66" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>102</v>
       </c>
       <c r="W66" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="AG66" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="AG66" s="2" t="s">
+      <c r="AH66" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="AH66" s="2" t="s">
+      <c r="AI66" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="AI66" s="2" t="s">
+      <c r="AJ66" s="2" t="s">
         <v>956</v>
-      </c>
-      <c r="AJ66" s="2" t="s">
-        <v>957</v>
       </c>
       <c r="AV66" s="2">
         <v>99282762</v>
       </c>
       <c r="AZ66" s="2"/>
       <c r="BA66" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K67" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="M67" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="N67" s="2">
         <v>5</v>
@@ -5439,28 +5439,28 @@
         <v>99357</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AZ67" s="2"/>
     </row>
     <row r="68" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>493</v>
-      </c>
       <c r="W68" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="AZ68" s="2"/>
     </row>
     <row r="69" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>159</v>
@@ -5469,22 +5469,22 @@
     </row>
     <row r="70" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>497</v>
       </c>
       <c r="I70" s="2">
         <v>927999263</v>
       </c>
       <c r="J70" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="M70" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="N70" s="2">
         <v>0</v>
@@ -5493,7 +5493,7 @@
         <v>76115</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="W70" s="2">
         <v>407130068</v>
@@ -5502,43 +5502,43 @@
     </row>
     <row r="71" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="AA71" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="AA71" s="2" t="s">
+      <c r="AE71" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="AE71" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="AZ71" s="2"/>
     </row>
     <row r="72" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="I72" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="K72" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="M72" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>512</v>
       </c>
       <c r="N72" s="2">
         <v>968</v>
@@ -5547,46 +5547,46 @@
         <v>46156</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AZ72" s="2"/>
     </row>
     <row r="73" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="U73" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="U73" s="2" t="s">
-        <v>517</v>
-      </c>
       <c r="W73" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="AZ73" s="2"/>
     </row>
     <row r="74" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="F74" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="G74" s="2" t="s">
+      <c r="M74" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>522</v>
       </c>
       <c r="N74" s="2">
         <v>1</v>
@@ -5595,10 +5595,10 @@
         <v>23013</v>
       </c>
       <c r="P74" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q74" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="Q74" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="R74" s="2">
         <v>684</v>
@@ -5607,7 +5607,7 @@
         <v>46491</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="W74" s="2">
         <v>409071025</v>
@@ -5619,19 +5619,19 @@
     </row>
     <row r="75" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="M75" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="N75" s="2">
         <v>90</v>
@@ -5640,49 +5640,49 @@
         <v>15874</v>
       </c>
       <c r="P75" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y75" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="Y75" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="AZ75" s="2"/>
     </row>
     <row r="76" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="W76" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="Y76" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="AA76" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="W76" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="Y76" s="2" t="s">
+      <c r="AB76" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="AG76" s="2" t="s">
         <v>961</v>
-      </c>
-      <c r="AA76" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="AB76" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="AG76" s="2" t="s">
-        <v>962</v>
       </c>
       <c r="AZ76" s="2"/>
     </row>
     <row r="77" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="W77" s="2">
         <v>408307553</v>
@@ -5691,46 +5691,46 @@
     </row>
     <row r="78" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>543</v>
       </c>
       <c r="AZ78" s="2"/>
     </row>
     <row r="79" spans="1:57" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>545</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AZ79" s="2"/>
     </row>
     <row r="80" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="M80" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="N80" s="2">
         <v>276</v>
@@ -5739,10 +5739,10 @@
         <v>53474</v>
       </c>
       <c r="P80" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="U80" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>552</v>
       </c>
       <c r="W80" s="2">
         <v>408072646</v>
@@ -5750,16 +5750,16 @@
     </row>
     <row r="81" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>556</v>
       </c>
       <c r="W81" s="2">
         <v>401584900</v>
@@ -5767,70 +5767,70 @@
     </row>
     <row r="82" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="K82" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="AZ82" s="10" t="s">
         <v>561</v>
-      </c>
-      <c r="AZ82" s="10" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="83" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="W83" s="2">
         <v>407982866</v>
       </c>
       <c r="AB83" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="84" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="Y84" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="Y84" s="2" t="s">
+      <c r="AZ84" s="11" t="s">
         <v>570</v>
-      </c>
-      <c r="AZ84" s="11" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="85" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="M85" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>575</v>
       </c>
       <c r="N85" s="2">
         <v>392</v>
@@ -5839,44 +5839,44 @@
         <v>27090</v>
       </c>
       <c r="P85" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="U85" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="U85" s="2" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="86" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="87" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="K87" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="M87" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="N87" s="2">
         <v>2</v>
@@ -5885,7 +5885,7 @@
         <v>90754</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="U87" s="2">
         <v>30253</v>
@@ -5894,35 +5894,35 @@
         <v>7564839</v>
       </c>
       <c r="AB87" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="AC87" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="AC87" s="2" t="s">
-        <v>590</v>
-      </c>
       <c r="AD87" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="88" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="AB88" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="AB88" s="2" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="89" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>179</v>
@@ -5930,47 +5930,47 @@
     </row>
     <row r="90" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="AB90" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="AB90" s="2" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="91" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="92" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="I92" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="M92" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>609</v>
       </c>
       <c r="N92" s="2">
         <v>7</v>
@@ -5979,198 +5979,198 @@
         <v>37940</v>
       </c>
       <c r="P92" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y92" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="Y92" s="2" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="93" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="W93" s="2">
         <v>400458969</v>
       </c>
       <c r="AG93" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="AH93" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="AH93" s="2" t="s">
+      <c r="AI93" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="AI93" s="2" t="s">
+      <c r="AJ93" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="AJ93" s="2" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="94" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB94" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="AB94" s="2" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="95" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="96" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="M96" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="M96" s="2" t="s">
+      <c r="N96" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="N96" s="2" t="s">
-        <v>629</v>
       </c>
       <c r="O96" s="2">
         <v>58954</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V96" s="2">
         <v>13962</v>
       </c>
       <c r="AB96" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="AC96" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="AC96" s="2" t="s">
+      <c r="AD96" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="AD96" s="2" t="s">
+      <c r="AK96" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="AK96" s="2" t="s">
+      <c r="AN96" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="AN96" s="2" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="97" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="H97" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="AE97" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="AE97" s="2" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="98" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="Z98" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="Z98" s="2" t="s">
+      <c r="AA98" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="AA98" s="2" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="99" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="100" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>650</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>651</v>
       </c>
       <c r="Y100" s="2">
         <v>30</v>
       </c>
       <c r="AZ100" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="101" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="I101" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="AZ101" s="10" t="s">
         <v>656</v>
-      </c>
-      <c r="AZ101" s="10" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="102" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="H102" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>661</v>
       </c>
       <c r="W102" s="2">
         <v>409107498</v>
@@ -6178,90 +6178,90 @@
     </row>
     <row r="103" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="W103" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="W103" s="2" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="104" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="U104" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="U104" s="2" t="s">
+      <c r="W104" s="2" t="s">
         <v>669</v>
-      </c>
-      <c r="W104" s="2" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="105" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="M105" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="M105" s="2" t="s">
+      <c r="N105" s="2" t="s">
         <v>674</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>675</v>
       </c>
       <c r="O105" s="2">
         <v>70417</v>
       </c>
       <c r="P105" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="U105" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="U105" s="2" t="s">
+      <c r="V105" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="V105" s="2" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="106" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="W106" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="W106" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="Y106" s="2">
         <v>282</v>
       </c>
       <c r="AB106" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="107" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>685</v>
       </c>
       <c r="AZ107" s="10" t="s">
         <v>224</v>
@@ -6269,146 +6269,146 @@
     </row>
     <row r="108" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="G108" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="AB108" s="2" t="s">
         <v>689</v>
-      </c>
-      <c r="AB108" s="2" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="109" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>691</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="110" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H110" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="H110" s="2" t="s">
+      <c r="M110" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="M110" s="2" t="s">
+      <c r="N110" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="N110" s="2" t="s">
+      <c r="U110" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="U110" s="2" t="s">
+      <c r="W110" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="W110" s="2" t="s">
+      <c r="AB110" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="AB110" s="2" t="s">
+      <c r="AC110" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="AC110" s="2" t="s">
+      <c r="AD110" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="AD110" s="2" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="111" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="W111" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="W111" s="2" t="s">
+      <c r="AB111" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="AB111" s="2" t="s">
+      <c r="AG111" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="AG111" s="2" t="s">
+      <c r="AH111" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="AH111" s="2" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="112" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="W112" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="W112" s="2" t="s">
+      <c r="AG112" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="AZ112" s="10" t="s">
         <v>714</v>
-      </c>
-      <c r="AG112" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="AZ112" s="10" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="113" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="G113" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="M113" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="M113" s="2" t="s">
+      <c r="N113" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="N113" s="2" t="s">
-        <v>722</v>
       </c>
       <c r="O113" s="2">
         <v>52391</v>
       </c>
       <c r="P113" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="W113" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="W113" s="2" t="s">
-        <v>724</v>
       </c>
       <c r="AZ113" s="10" t="s">
         <v>224</v>
@@ -6416,24 +6416,24 @@
     </row>
     <row r="114" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>726</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="115" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="AB115" s="2" t="s">
         <v>729</v>
-      </c>
-      <c r="AB115" s="2" t="s">
-        <v>730</v>
       </c>
       <c r="AZ115" s="10" t="s">
         <v>190</v>
@@ -6441,51 +6441,51 @@
     </row>
     <row r="116" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="I116" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="I116" s="2" t="s">
+      <c r="L116" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="L116" s="2" t="s">
+      <c r="M116" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="M116" s="2" t="s">
+      <c r="N116" s="2" t="s">
         <v>736</v>
-      </c>
-      <c r="N116" s="2" t="s">
-        <v>737</v>
       </c>
       <c r="O116" s="2">
         <v>69604</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="117" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="W117" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="W117" s="2" t="s">
+      <c r="AB117" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="AB117" s="2" t="s">
-        <v>743</v>
-      </c>
       <c r="AC117" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AN117" s="2">
         <v>208</v>
@@ -6493,91 +6493,91 @@
     </row>
     <row r="118" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="W118" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="W118" s="2" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="119" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="G119" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="J119" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="G119" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="J119" s="2" t="s">
+      <c r="AL119" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="AL119" s="2" t="s">
-        <v>753</v>
-      </c>
       <c r="AM119" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="120" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="F120" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="G120" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="H120" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="I120" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="H120" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="I120" s="2" t="s">
+      <c r="K120" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="K120" s="2" t="s">
+      <c r="M120" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="M120" s="2" t="s">
+      <c r="N120" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="N120" s="2" t="s">
+      <c r="O120" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="O120" s="2" t="s">
+      <c r="P120" s="2" t="s">
         <v>763</v>
-      </c>
-      <c r="P120" s="2" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="121" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="AB121" s="2" t="s">
         <v>765</v>
-      </c>
-      <c r="AB121" s="2" t="s">
-        <v>766</v>
       </c>
       <c r="AZ121" s="10" t="s">
         <v>224</v>
@@ -6585,32 +6585,32 @@
     </row>
     <row r="122" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="123" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>771</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>772</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
@@ -6655,22 +6655,22 @@
       <c r="AX123" s="3"/>
       <c r="AY123" s="3"/>
       <c r="AZ123" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA123" s="3"/>
       <c r="BB123" s="3"/>
     </row>
     <row r="124" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>776</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>777</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -6680,16 +6680,16 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
       <c r="M124" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="O124" s="3">
         <v>49479</v>
       </c>
       <c r="P124" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="Q124" s="3"/>
       <c r="R124" s="3"/>
@@ -6727,19 +6727,19 @@
       <c r="AX124" s="3"/>
       <c r="AY124" s="3"/>
       <c r="AZ124" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA124" s="3"/>
       <c r="BB124" s="3"/>
     </row>
     <row r="125" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>61</v>
@@ -6752,7 +6752,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
       <c r="M125" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N125" s="3">
         <v>10</v>
@@ -6801,22 +6801,22 @@
       <c r="AX125" s="3"/>
       <c r="AY125" s="3"/>
       <c r="AZ125" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA125" s="3"/>
       <c r="BB125" s="3"/>
     </row>
     <row r="126" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>784</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>785</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
@@ -6865,22 +6865,22 @@
       <c r="AX126" s="3"/>
       <c r="AY126" s="3"/>
       <c r="AZ126" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA126" s="3"/>
       <c r="BB126" s="3"/>
     </row>
     <row r="127" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>787</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>788</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
@@ -6907,10 +6907,10 @@
       <c r="Z127" s="3"/>
       <c r="AA127" s="3"/>
       <c r="AB127" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="AC127" s="3" t="s">
         <v>964</v>
-      </c>
-      <c r="AC127" s="3" t="s">
-        <v>965</v>
       </c>
       <c r="AD127" s="3"/>
       <c r="AE127" s="3"/>
@@ -6942,31 +6942,31 @@
     </row>
     <row r="128" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="E128" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="F128" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="F128" s="3" t="s">
+      <c r="G128" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="H128" s="3" t="s">
         <v>793</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>794</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
       <c r="M128" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="N128" s="3">
         <v>16</v>
@@ -6975,10 +6975,10 @@
         <v>54597</v>
       </c>
       <c r="P128" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="Q128" s="3" t="s">
         <v>796</v>
-      </c>
-      <c r="Q128" s="3" t="s">
-        <v>797</v>
       </c>
       <c r="R128" s="3">
         <v>9</v>
@@ -6987,23 +6987,23 @@
         <v>14403</v>
       </c>
       <c r="T128" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="U128" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="U128" s="3" t="s">
+      <c r="V128" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="W128" s="3" t="s">
         <v>799</v>
-      </c>
-      <c r="V128" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="W128" s="3" t="s">
-        <v>800</v>
       </c>
       <c r="X128" s="3"/>
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
       <c r="AA128" s="3"/>
       <c r="AB128" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="AC128" s="3"/>
       <c r="AD128" s="3"/>
@@ -7029,22 +7029,22 @@
       <c r="AX128" s="3"/>
       <c r="AY128" s="3"/>
       <c r="AZ128" s="12" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="BA128" s="3"/>
       <c r="BB128" s="3"/>
     </row>
     <row r="129" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="E129" s="3" t="s">
         <v>803</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>804</v>
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
@@ -7054,7 +7054,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
       <c r="M129" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="N129" s="3">
         <v>93</v>
@@ -7063,7 +7063,7 @@
         <v>57192</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q129" s="3"/>
       <c r="R129" s="3"/>
@@ -7074,12 +7074,12 @@
       <c r="W129" s="3"/>
       <c r="X129" s="3"/>
       <c r="Y129" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Z129" s="3"/>
       <c r="AA129" s="3"/>
       <c r="AB129" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AC129" s="3"/>
       <c r="AD129" s="3"/>
@@ -7105,24 +7105,24 @@
       <c r="AX129" s="3"/>
       <c r="AY129" s="3"/>
       <c r="AZ129" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA129" s="3"/>
       <c r="BB129" s="3"/>
     </row>
     <row r="130" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>807</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>808</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>809</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>810</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
@@ -7171,22 +7171,22 @@
       <c r="AX130" s="3"/>
       <c r="AY130" s="3"/>
       <c r="AZ130" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA130" s="3"/>
       <c r="BB130" s="3"/>
     </row>
     <row r="131" spans="1:54" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="E131" s="3" t="s">
         <v>812</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>813</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
@@ -7213,7 +7213,7 @@
       <c r="Z131" s="3"/>
       <c r="AA131" s="3"/>
       <c r="AB131" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AC131" s="3"/>
       <c r="AD131" s="3"/>
@@ -7239,22 +7239,22 @@
       <c r="AX131" s="3"/>
       <c r="AY131" s="3"/>
       <c r="AZ131" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA131" s="3"/>
       <c r="BB131" s="3"/>
     </row>
     <row r="132" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="E132" s="3" t="s">
         <v>815</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>816</v>
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
@@ -7305,22 +7305,22 @@
       <c r="AX132" s="3"/>
       <c r="AY132" s="3"/>
       <c r="AZ132" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA132" s="3"/>
       <c r="BB132" s="3"/>
     </row>
     <row r="133" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="E133" s="3" t="s">
         <v>818</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>819</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
@@ -7369,26 +7369,26 @@
       <c r="AX133" s="3"/>
       <c r="AY133" s="3"/>
       <c r="AZ133" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA133" s="3"/>
       <c r="BB133" s="3"/>
     </row>
     <row r="134" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="F134" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="F134" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="G134" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
@@ -7435,24 +7435,24 @@
       <c r="AX134" s="3"/>
       <c r="AY134" s="3"/>
       <c r="AZ134" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA134" s="3"/>
       <c r="BB134" s="3"/>
     </row>
     <row r="135" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="E135" s="3" t="s">
         <v>823</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>824</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
@@ -7472,10 +7472,10 @@
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
       <c r="W135" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="X135" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="X135" s="3" t="s">
-        <v>826</v>
       </c>
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
@@ -7505,36 +7505,36 @@
       <c r="AX135" s="3"/>
       <c r="AY135" s="3"/>
       <c r="AZ135" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA135" s="3"/>
       <c r="BB135" s="3"/>
     </row>
     <row r="136" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="E136" s="3" t="s">
         <v>828</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>829</v>
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L136" s="3"/>
       <c r="M136" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="N136" s="3">
         <v>971</v>
@@ -7543,7 +7543,7 @@
         <v>6134</v>
       </c>
       <c r="P136" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q136" s="3"/>
       <c r="R136" s="3"/>
@@ -7581,49 +7581,49 @@
       <c r="AX136" s="3"/>
       <c r="AY136" s="3"/>
       <c r="AZ136" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA136" s="3"/>
       <c r="BB136" s="3"/>
     </row>
     <row r="137" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="E137" s="3" t="s">
         <v>835</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>836</v>
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="J137" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="J137" s="3" t="s">
+      <c r="K137" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="K137" s="3" t="s">
+      <c r="L137" s="7" t="s">
         <v>839</v>
       </c>
-      <c r="L137" s="7" t="s">
+      <c r="M137" s="3" t="s">
         <v>840</v>
-      </c>
-      <c r="M137" s="3" t="s">
-        <v>841</v>
       </c>
       <c r="N137" s="3">
         <v>1</v>
       </c>
       <c r="O137" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="P137" s="3" t="s">
         <v>842</v>
-      </c>
-      <c r="P137" s="3" t="s">
-        <v>843</v>
       </c>
       <c r="Q137" s="3"/>
       <c r="R137" s="3"/>
@@ -7632,7 +7632,7 @@
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
       <c r="W137" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
@@ -7663,22 +7663,22 @@
       <c r="AX137" s="3"/>
       <c r="AY137" s="3"/>
       <c r="AZ137" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA137" s="3"/>
       <c r="BB137" s="3"/>
     </row>
     <row r="138" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
@@ -7688,7 +7688,7 @@
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
       <c r="M138" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="N138" s="3">
         <v>4</v>
@@ -7697,7 +7697,7 @@
         <v>90719</v>
       </c>
       <c r="P138" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="Q138" s="3"/>
       <c r="R138" s="3"/>
@@ -7706,7 +7706,7 @@
       <c r="U138" s="3"/>
       <c r="V138" s="3"/>
       <c r="W138" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
@@ -7737,20 +7737,20 @@
       <c r="AX138" s="3"/>
       <c r="AY138" s="3"/>
       <c r="AZ138" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA138" s="3"/>
       <c r="BB138" s="3"/>
     </row>
     <row r="139" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -7799,22 +7799,22 @@
       <c r="AX139" s="3"/>
       <c r="AY139" s="3"/>
       <c r="AZ139" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA139" s="3"/>
       <c r="BB139" s="3"/>
     </row>
     <row r="140" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="E140" s="3" t="s">
         <v>853</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>854</v>
       </c>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
@@ -7832,7 +7832,7 @@
       <c r="S140" s="3"/>
       <c r="T140" s="3"/>
       <c r="U140" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="V140" s="3"/>
       <c r="W140" s="3">
@@ -7843,7 +7843,7 @@
       <c r="Z140" s="3"/>
       <c r="AA140" s="3"/>
       <c r="AB140" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AC140" s="3"/>
       <c r="AD140" s="3"/>
@@ -7869,34 +7869,34 @@
       <c r="AX140" s="3"/>
       <c r="AY140" s="3"/>
       <c r="AZ140" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA140" s="3"/>
       <c r="BB140" s="3"/>
     </row>
     <row r="141" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
       <c r="M141" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="N141" s="3">
         <v>8</v>
@@ -7905,7 +7905,7 @@
         <v>79096</v>
       </c>
       <c r="P141" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="Q141" s="3"/>
       <c r="R141" s="3"/>
@@ -7918,15 +7918,15 @@
       </c>
       <c r="X141" s="3"/>
       <c r="Y141" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="Z141" s="3"/>
       <c r="AA141" s="3"/>
       <c r="AB141" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AC141" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AD141" s="3"/>
       <c r="AE141" s="3"/>
@@ -7939,7 +7939,7 @@
       <c r="AL141" s="3"/>
       <c r="AM141" s="3"/>
       <c r="AN141" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AO141" s="3"/>
       <c r="AP141" s="3"/>
@@ -7953,14 +7953,14 @@
       <c r="AX141" s="3"/>
       <c r="AY141" s="3"/>
       <c r="AZ141" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA141" s="3"/>
       <c r="BB141" s="3"/>
     </row>
     <row r="142" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -7970,11 +7970,11 @@
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J142" s="3"/>
       <c r="K142" s="14" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="L142" s="15"/>
       <c r="M142" s="15"/>
@@ -8017,22 +8017,22 @@
       <c r="AX142" s="3"/>
       <c r="AY142" s="3"/>
       <c r="AZ142" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA142" s="3"/>
       <c r="BB142" s="3"/>
     </row>
     <row r="143" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="E143" s="3" t="s">
         <v>868</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>869</v>
       </c>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -8081,22 +8081,22 @@
       <c r="AX143" s="3"/>
       <c r="AY143" s="3"/>
       <c r="AZ143" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA143" s="3"/>
       <c r="BB143" s="3"/>
     </row>
     <row r="144" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -8123,7 +8123,7 @@
       <c r="Z144" s="3"/>
       <c r="AA144" s="3"/>
       <c r="AB144" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AC144" s="3"/>
       <c r="AD144" s="3"/>
@@ -8149,22 +8149,22 @@
       <c r="AX144" s="3"/>
       <c r="AY144" s="3"/>
       <c r="AZ144" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA144" s="3"/>
       <c r="BB144" s="3"/>
     </row>
     <row r="145" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="E145" s="3" t="s">
         <v>873</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>874</v>
       </c>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
@@ -8189,13 +8189,13 @@
       <c r="Z145" s="3"/>
       <c r="AA145" s="3"/>
       <c r="AB145" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AC145" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD145" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AE145" s="3"/>
       <c r="AF145" s="3"/>
@@ -8219,14 +8219,14 @@
       <c r="AX145" s="3"/>
       <c r="AY145" s="3"/>
       <c r="AZ145" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA145" s="3"/>
       <c r="BB145" s="3"/>
     </row>
     <row r="146" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -8279,19 +8279,19 @@
       <c r="AX146" s="3"/>
       <c r="AY146" s="3"/>
       <c r="AZ146" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA146" s="3"/>
       <c r="BB146" s="3"/>
     </row>
     <row r="147" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>78</v>
@@ -8300,13 +8300,13 @@
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="I147" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
       <c r="M147" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="N147" s="3">
         <v>5</v>
@@ -8315,7 +8315,7 @@
         <v>29975</v>
       </c>
       <c r="P147" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="Q147" s="3"/>
       <c r="R147" s="3"/>
@@ -8355,22 +8355,22 @@
       <c r="AX147" s="3"/>
       <c r="AY147" s="3"/>
       <c r="AZ147" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA147" s="3"/>
       <c r="BB147" s="3"/>
     </row>
     <row r="148" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="E148" s="3" t="s">
         <v>882</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>883</v>
       </c>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
@@ -8395,10 +8395,10 @@
       <c r="Z148" s="3"/>
       <c r="AA148" s="3"/>
       <c r="AB148" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="AC148" s="3" t="s">
         <v>974</v>
-      </c>
-      <c r="AC148" s="3" t="s">
-        <v>975</v>
       </c>
       <c r="AD148" s="3"/>
       <c r="AE148" s="3"/>
@@ -8423,29 +8423,29 @@
       <c r="AX148" s="3"/>
       <c r="AY148" s="3"/>
       <c r="AZ148" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA148" s="3"/>
       <c r="BB148" s="3"/>
     </row>
     <row r="149" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="E149" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>886</v>
       </c>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
@@ -8491,22 +8491,22 @@
       <c r="AX149" s="3"/>
       <c r="AY149" s="3"/>
       <c r="AZ149" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA149" s="3"/>
       <c r="BB149" s="3"/>
     </row>
     <row r="150" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
@@ -8516,7 +8516,7 @@
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
       <c r="M150" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="N150" s="3">
         <v>4</v>
@@ -8525,7 +8525,7 @@
         <v>35656</v>
       </c>
       <c r="P150" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="Q150" s="3"/>
       <c r="R150" s="3"/>
@@ -8543,7 +8543,7 @@
       <c r="Z150" s="3"/>
       <c r="AA150" s="3"/>
       <c r="AB150" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="AC150" s="3"/>
       <c r="AD150" s="3"/>
@@ -8569,20 +8569,20 @@
       <c r="AX150" s="3"/>
       <c r="AY150" s="3"/>
       <c r="AZ150" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA150" s="3"/>
       <c r="BB150" s="3"/>
     </row>
     <row r="151" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -8631,22 +8631,22 @@
       <c r="AX151" s="3"/>
       <c r="AY151" s="3"/>
       <c r="AZ151" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA151" s="3"/>
       <c r="BB151" s="3"/>
     </row>
     <row r="152" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="E152" s="3" t="s">
         <v>895</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>896</v>
       </c>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
@@ -8699,36 +8699,36 @@
       <c r="AX152" s="3"/>
       <c r="AY152" s="3"/>
       <c r="AZ152" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA152" s="3"/>
       <c r="BB152" s="3"/>
     </row>
     <row r="153" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="E153" s="3" t="s">
         <v>898</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>899</v>
       </c>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="J153" s="3" t="s">
         <v>900</v>
-      </c>
-      <c r="J153" s="3" t="s">
-        <v>901</v>
       </c>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
       <c r="M153" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="N153" s="3">
         <v>998</v>
@@ -8737,7 +8737,7 @@
         <v>99130</v>
       </c>
       <c r="P153" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="3"/>
@@ -8775,14 +8775,14 @@
       <c r="AX153" s="3"/>
       <c r="AY153" s="3"/>
       <c r="AZ153" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA153" s="3"/>
       <c r="BB153" s="3"/>
     </row>
     <row r="154" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -8835,34 +8835,34 @@
       <c r="AX154" s="3"/>
       <c r="AY154" s="3"/>
       <c r="AZ154" s="13" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="BA154" s="3"/>
       <c r="BB154" s="3"/>
     </row>
     <row r="155" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
       <c r="M155" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="N155" s="3">
         <v>9</v>
@@ -8871,7 +8871,7 @@
         <v>23901</v>
       </c>
       <c r="P155" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="Q155" s="3"/>
       <c r="R155" s="3"/>
@@ -8887,7 +8887,7 @@
       <c r="Z155" s="3"/>
       <c r="AA155" s="3"/>
       <c r="AB155" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AC155" s="3"/>
       <c r="AD155" s="3"/>
@@ -8913,29 +8913,29 @@
       <c r="AX155" s="3"/>
       <c r="AY155" s="3"/>
       <c r="AZ155" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA155" s="3"/>
       <c r="BB155" s="3"/>
     </row>
     <row r="156" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
@@ -8952,23 +8952,23 @@
       <c r="U156" s="3"/>
       <c r="V156" s="3"/>
       <c r="W156" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="X156" s="3"/>
       <c r="Y156" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="Z156" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="Z156" s="3" t="s">
+      <c r="AA156" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="AA156" s="3" t="s">
-        <v>917</v>
-      </c>
       <c r="AB156" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="AC156" s="3" t="s">
         <v>978</v>
-      </c>
-      <c r="AC156" s="3" t="s">
-        <v>979</v>
       </c>
       <c r="AD156" s="3"/>
       <c r="AE156" s="3"/>
@@ -8993,27 +8993,27 @@
       <c r="AX156" s="3"/>
       <c r="AY156" s="3"/>
       <c r="AZ156" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA156" s="3"/>
       <c r="BB156" s="3"/>
     </row>
     <row r="157" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="I157" s="3">
         <v>9814526041</v>
@@ -9024,7 +9024,7 @@
         <v>9814526043</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="N157" s="3">
         <v>3</v>
@@ -9033,7 +9033,7 @@
         <v>50225</v>
       </c>
       <c r="P157" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="Q157" s="3"/>
       <c r="R157" s="3"/>
@@ -9071,34 +9071,34 @@
       <c r="AX157" s="3"/>
       <c r="AY157" s="3"/>
       <c r="AZ157" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA157" s="3"/>
       <c r="BB157" s="3"/>
     </row>
     <row r="158" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="E158" s="3" t="s">
         <v>924</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>925</v>
       </c>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
       <c r="M158" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="N158" s="3">
         <v>1</v>
@@ -9107,7 +9107,7 @@
         <v>28558</v>
       </c>
       <c r="P158" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="Q158" s="3"/>
       <c r="R158" s="3"/>
@@ -9121,7 +9121,7 @@
       <c r="Z158" s="3"/>
       <c r="AA158" s="3"/>
       <c r="AB158" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AC158" s="3"/>
       <c r="AD158" s="3"/>
@@ -9147,22 +9147,22 @@
       <c r="AX158" s="3"/>
       <c r="AY158" s="3"/>
       <c r="AZ158" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA158" s="3"/>
       <c r="BB158" s="3"/>
     </row>
     <row r="159" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="E159" s="3" t="s">
         <v>930</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>931</v>
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
@@ -9172,7 +9172,7 @@
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
       <c r="M159" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="N159" s="3">
         <v>8</v>
@@ -9181,7 +9181,7 @@
         <v>55257</v>
       </c>
       <c r="P159" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="Q159" s="3"/>
       <c r="R159" s="3"/>
@@ -9197,7 +9197,7 @@
       <c r="Z159" s="3"/>
       <c r="AA159" s="3"/>
       <c r="AB159" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AC159" s="3"/>
       <c r="AD159" s="3"/>
@@ -9223,22 +9223,22 @@
       <c r="AX159" s="3"/>
       <c r="AY159" s="3"/>
       <c r="AZ159" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA159" s="3"/>
       <c r="BB159" s="3"/>
     </row>
     <row r="160" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
@@ -9287,22 +9287,22 @@
       <c r="AX160" s="3"/>
       <c r="AY160" s="3"/>
       <c r="AZ160" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA160" s="3"/>
       <c r="BB160" s="3"/>
     </row>
     <row r="161" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
@@ -9312,7 +9312,7 @@
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
       <c r="M161" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="N161" s="3">
         <v>420</v>
@@ -9321,7 +9321,7 @@
         <v>18190</v>
       </c>
       <c r="P161" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="Q161" s="3"/>
       <c r="R161" s="3"/>
@@ -9331,7 +9331,7 @@
         <v>62613684</v>
       </c>
       <c r="V161" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="W161" s="3"/>
       <c r="X161" s="3"/>
@@ -9339,7 +9339,7 @@
       <c r="Z161" s="3"/>
       <c r="AA161" s="3"/>
       <c r="AB161" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AC161" s="3"/>
       <c r="AD161" s="3"/>
@@ -9365,7 +9365,7 @@
       <c r="AX161" s="3"/>
       <c r="AY161" s="3"/>
       <c r="AZ161" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BA161" s="3"/>
       <c r="BB161" s="3"/>

--- a/data/DAiA Manual Labeling.xlsx
+++ b/data/DAiA Manual Labeling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3255aa3fa7d48a59/Desktop/Veranstaltungen/Data Analytics in Applications/daia-eon/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{114ED53A-7DD9-4EBE-ACAF-8801673E5573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69511628-40F8-524B-BD15-FD5E0D108E1F}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{114ED53A-7DD9-4EBE-ACAF-8801673E5573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0F9BBE2-3DB8-B54E-A5F2-F99A18ECE987}"/>
   <bookViews>
-    <workbookView xWindow="19780" yWindow="22600" windowWidth="14440" windowHeight="16640" xr2:uid="{D5A5125A-2A0E-AE4B-B7B2-07D8AB5715C0}"/>
+    <workbookView xWindow="4820" yWindow="22340" windowWidth="29400" windowHeight="18380" xr2:uid="{D5A5125A-2A0E-AE4B-B7B2-07D8AB5715C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3473,10 +3473,10 @@
   <dimension ref="A1:BE161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AR17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AT27" sqref="AT27"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
